--- a/results/mp/logistic/corona/confidence/210/masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,72 +40,78 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
@@ -115,15 +121,15 @@
     <t>19</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -139,102 +145,99 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>gt</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
@@ -244,7 +247,7 @@
     <t>you</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
@@ -671,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -721,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>0.9230769230769231</v>
@@ -771,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8082191780821918</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -821,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,16 +845,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,16 +895,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8246073298429319</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.825065274151436</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6440677966101694</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5686274509803921</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5608465608465608</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,7 +1195,7 @@
         <v>245</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>0.7872340425531915</v>
@@ -1221,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5033557046979866</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,7 +1274,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.475</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -1289,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3928571428571428</v>
+        <v>0.475</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3866666666666667</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3805555555555555</v>
+        <v>0.44</v>
       </c>
       <c r="C18">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2658730158730159</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2597402597402597</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,7 +1624,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2375</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -1639,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2111111111111111</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.6984126984126984</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1724,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1554959785522788</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>315</v>
+        <v>193</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.6976744186046512</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,37 +1774,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01094736842105263</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2349</v>
+        <v>313</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,37 +1824,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009987113402061855</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3073</v>
+        <v>278</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.675</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,37 +1874,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.009808500700607193</v>
+        <v>0.01431578947368421</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F27">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2120</v>
+        <v>2341</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6411764705882353</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L27">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M27">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,37 +1924,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006031128404669261</v>
+        <v>0.01095360824742268</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>0.45</v>
+        <v>0.08</v>
       </c>
       <c r="F28">
-        <v>0.55</v>
+        <v>0.92</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>5109</v>
+        <v>3070</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,28 +1974,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005340143951706525</v>
+        <v>0.0107577174929841</v>
       </c>
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E29">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="F29">
-        <v>0.52</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>4284</v>
+        <v>2115</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K29">
         <v>0.6</v>
@@ -2021,28 +2024,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004819277108433735</v>
+        <v>0.005231388329979879</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E30">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>4956</v>
+        <v>4944</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K30">
         <v>0.5941422594142259</v>
@@ -2067,43 +2070,91 @@
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.00505443234836703</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>0.45</v>
+      </c>
+      <c r="F31">
+        <v>0.55</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>5118</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5932203389830508</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L31">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M31">
         <v>175</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.004873520538407983</v>
+      </c>
+      <c r="C32">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0.47</v>
+      </c>
+      <c r="F32">
+        <v>0.53</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4288</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.5851063829787234</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L32">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2115,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.5538461538461539</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2141,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.5428571428571428</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2167,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2193,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.4831460674157304</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2219,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.4705882352941176</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2245,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2271,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.3287671232876712</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2297,125 +2348,125 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.282051282051282</v>
+        <v>0.02504173622704508</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>56</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.03174603174603174</v>
+        <v>0.009391435011269721</v>
       </c>
       <c r="L41">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1159</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K42">
-        <v>0.006267627702914447</v>
+        <v>0.005231388329979879</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N42">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="O42">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3171</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K43">
-        <v>0.004878048780487805</v>
+        <v>0.004411423264453216</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N43">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="O43">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>4284</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K44">
-        <v>0.004869497467861317</v>
+        <v>0.004086398131932283</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>0.45</v>
@@ -2427,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>5109</v>
+        <v>5118</v>
       </c>
     </row>
   </sheetData>
